--- a/biology/Histoire de la zoologie et de la botanique/John_Augustine_Zahm/John_Augustine_Zahm.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/John_Augustine_Zahm/John_Augustine_Zahm.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">John Augustine Zahm né le 11 juin 1851 à New Lexington et mort le 10 novembre 1921 à Munich, est un scientifique, un explorateur et un écrivain américain.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il est le fils de Jacob M. Zahm et de Mary née Braddock. Il obtient son Bachelor of Arts à l’université Notre-Dame de l’Indiana en 1871. Il entre alors dans la Congrégation de Sainte-Croix. En 1874, il commence à travailler dans le département des sciences de cette Congrégation, département qu’il dirige l’année suivante. Un peu plus tard, il dirige l’université Notre-Dame. Parallèlement à ses activités, il enseigne dans de nombreux établissements catholiques aux États-Unis d'Amérique. En 1895, le pape Léon XIII (1878-1903), lui donne un Ph. D. honoraire.
 Il est notamment l’auteur d’Evolution and Dogma ; Bible Science and Faith : Sound and Music ; Catholic Science and Catholic Scientists ; Scientific Theory and Catholic Doctrine ; Science and the Church ; Evolution and Theology ; Souvenirs of Travel ; Alaska, the Country and the People ; Hawaii and the Hawaiians.
